--- a/EST/tabelas_Sprint.xlsx
+++ b/EST/tabelas_Sprint.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Downloads\faculdade\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads_Rodrigo\Git\Challenge_Natura\EST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3EF04B-1D3F-4ECA-8B5F-7EF6656D64DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D122C151-A408-45F1-A0FB-732820EDCDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{1F2F3B23-380F-4030-B64F-CCAB0E730B53}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="18000" windowHeight="9270" activeTab="1" xr2:uid="{1F2F3B23-380F-4030-B64F-CCAB0E730B53}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="16">
   <si>
     <r>
       <t xml:space="preserve">Renda </t>
@@ -169,14 +170,38 @@
   <si>
     <t>;</t>
   </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <t>Ordenação na
+Fila de Dados</t>
+  </si>
+  <si>
+    <t>ao</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-&quot;R$&quot;\ * #,##0.000000000_-;\-&quot;R$&quot;\ * #,##0.000000000_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.000000000_-;\-&quot;R$&quot;\ * #,##0.000000000_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -263,7 +288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -332,12 +357,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -380,6 +428,11 @@
     <xf numFmtId="44" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -395,12 +448,62 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -534,10 +637,129 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>370840</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54BCB4B0-6C2A-4851-B284-6B8D7A1B663B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="161925" y="3095625"/>
+          <a:ext cx="5400040" cy="3489325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>714377</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85727</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2" descr="Natura Logo – PNG e Vetor – Download de Logo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D1E9621-6E33-41F4-9D1E-C250A6D7454C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1438277" y="276226"/>
+          <a:ext cx="285750" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -575,7 +797,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -681,7 +903,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -823,7 +1045,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -833,29 +1055,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD3D282-E772-4321-8CFB-536BFBD4E463}">
   <dimension ref="B3:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I13" workbookViewId="0">
+    <sheetView topLeftCell="I13" workbookViewId="0">
       <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -865,19 +1087,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+    <row r="4" spans="2:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -897,7 +1119,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
@@ -917,7 +1139,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
@@ -937,7 +1159,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -957,7 +1179,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
@@ -977,7 +1199,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
@@ -997,7 +1219,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>1</v>
       </c>
@@ -1017,7 +1239,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
@@ -1037,7 +1259,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
@@ -1057,26 +1279,26 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="19" t="s">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="J16" s="21" t="s">
+    <row r="16" spans="2:17" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="J16" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
       <c r="O16" s="15" t="s">
         <v>7</v>
       </c>
@@ -1087,7 +1309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J17" s="1" t="s">
         <v>1</v>
       </c>
@@ -1108,7 +1330,7 @@
         <v>1500</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" ref="P17:P25" si="0">G5</f>
+        <f t="shared" ref="P17" si="0">G5</f>
         <v>180</v>
       </c>
       <c r="Q17" s="16">
@@ -1116,7 +1338,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="18" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J18" s="1" t="s">
         <v>1</v>
       </c>
@@ -1145,7 +1367,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="19" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J19" s="1" t="s">
         <v>1</v>
       </c>
@@ -1174,7 +1396,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="20" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1203,7 +1425,7 @@
         <v>390000</v>
       </c>
     </row>
-    <row r="21" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1232,7 +1454,7 @@
         <v>455000</v>
       </c>
     </row>
-    <row r="22" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1261,7 +1483,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="23" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J23" s="1" t="s">
         <v>1</v>
       </c>
@@ -1290,7 +1512,7 @@
         <v>1260000</v>
       </c>
     </row>
-    <row r="24" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J24" s="1" t="s">
         <v>1</v>
       </c>
@@ -1319,7 +1541,7 @@
         <v>850000</v>
       </c>
     </row>
-    <row r="25" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J25" s="1" t="s">
         <v>1</v>
       </c>
@@ -1348,15 +1570,15 @@
         <v>495000</v>
       </c>
     </row>
-    <row r="26" spans="10:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="J26" s="22" t="s">
+    <row r="26" spans="10:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J26" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
       <c r="P26" s="15" t="str">
         <f>SUM(P17:P25)&amp;" CBs Natura"</f>
         <v>1410 CBs Natura</v>
@@ -1366,38 +1588,38 @@
         <v>4950000</v>
       </c>
     </row>
-    <row r="29" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="P29" s="23">
+    <row r="29" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="P29" s="19">
         <f>Q26/1410</f>
         <v>3510.6382978723404</v>
       </c>
     </row>
-    <row r="32" spans="10:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="10:17" x14ac:dyDescent="0.25">
       <c r="P32">
         <f>280-150</f>
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P33">
         <f>2*280-(150+170)</f>
         <v>240</v>
       </c>
     </row>
-    <row r="35" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P35">
         <f>P32/P33*500</f>
         <v>270.83333333333331</v>
       </c>
     </row>
-    <row r="36" spans="16:16" x14ac:dyDescent="0.3">
-      <c r="P36" s="24">
+    <row r="36" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P36" s="20">
         <f>P35+K23</f>
         <v>4520.833333333333</v>
       </c>
     </row>
-    <row r="38" spans="16:16" x14ac:dyDescent="0.3">
-      <c r="P38" s="23"/>
+    <row r="38" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P38" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1410,4 +1632,638 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BFD112-6066-4B49-A858-511AFC5FEC7D}">
+  <dimension ref="B3:S38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8" customWidth="1"/>
+    <col min="18" max="18" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1250</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1750</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1750</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2250</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2250</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2750</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2750</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3250</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3250</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3750</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3750</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4250</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4250</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4750</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4750</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5250</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5250</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5750</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q16" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="R16" s="27"/>
+      <c r="S16" s="28"/>
+    </row>
+    <row r="17" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J17" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="39">
+        <v>1250</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="39">
+        <v>1750</v>
+      </c>
+      <c r="N17" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="O17" s="6">
+        <f>G5</f>
+        <v>180</v>
+      </c>
+      <c r="P17" s="32">
+        <f>SUM($O$17:O17)</f>
+        <v>180</v>
+      </c>
+      <c r="Q17" s="34">
+        <f>S16+1</f>
+        <v>1</v>
+      </c>
+      <c r="R17" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" s="37">
+        <f>P17</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J18" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="40">
+        <v>1750</v>
+      </c>
+      <c r="L18" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="40">
+        <v>2250</v>
+      </c>
+      <c r="N18" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="O18" s="6">
+        <f>G6-G5</f>
+        <v>140</v>
+      </c>
+      <c r="P18" s="33">
+        <f>SUM($O$17:O18)</f>
+        <v>320</v>
+      </c>
+      <c r="Q18" s="34">
+        <f t="shared" ref="Q18:Q25" si="0">S17+1</f>
+        <v>181</v>
+      </c>
+      <c r="R18" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="S18" s="37">
+        <f t="shared" ref="S18:S25" si="1">P18</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J19" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="40">
+        <v>2250</v>
+      </c>
+      <c r="L19" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="40">
+        <v>2750</v>
+      </c>
+      <c r="N19" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" s="6">
+        <f>G7-G6</f>
+        <v>140</v>
+      </c>
+      <c r="P19" s="33">
+        <f>SUM($O$17:O19)</f>
+        <v>460</v>
+      </c>
+      <c r="Q19" s="34">
+        <f t="shared" si="0"/>
+        <v>321</v>
+      </c>
+      <c r="R19" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="S19" s="37">
+        <f t="shared" si="1"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="20" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J20" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="40">
+        <v>2750</v>
+      </c>
+      <c r="L20" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="40">
+        <v>3250</v>
+      </c>
+      <c r="N20" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" s="6">
+        <f>G8-G7</f>
+        <v>130</v>
+      </c>
+      <c r="P20" s="33">
+        <f>SUM($O$17:O20)</f>
+        <v>590</v>
+      </c>
+      <c r="Q20" s="34">
+        <f t="shared" si="0"/>
+        <v>461</v>
+      </c>
+      <c r="R20" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="S20" s="37">
+        <f t="shared" si="1"/>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="21" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J21" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="40">
+        <v>3250</v>
+      </c>
+      <c r="L21" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="40">
+        <v>3750</v>
+      </c>
+      <c r="N21" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" s="6">
+        <f>G9-G8</f>
+        <v>130</v>
+      </c>
+      <c r="P21" s="33">
+        <f>SUM($O$17:O21)</f>
+        <v>720</v>
+      </c>
+      <c r="Q21" s="34">
+        <f t="shared" si="0"/>
+        <v>591</v>
+      </c>
+      <c r="R21" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="S21" s="37">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="22" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J22" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="40">
+        <v>3750</v>
+      </c>
+      <c r="L22" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" s="40">
+        <v>4250</v>
+      </c>
+      <c r="N22" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" s="6">
+        <f>G10-G9</f>
+        <v>150</v>
+      </c>
+      <c r="P22" s="33">
+        <f>SUM($O$17:O22)</f>
+        <v>870</v>
+      </c>
+      <c r="Q22" s="34">
+        <f t="shared" si="0"/>
+        <v>721</v>
+      </c>
+      <c r="R22" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="S22" s="37">
+        <f t="shared" si="1"/>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="23" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J23" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="40">
+        <v>4250</v>
+      </c>
+      <c r="L23" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" s="40">
+        <v>4750</v>
+      </c>
+      <c r="N23" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" s="6">
+        <f>G11-G10</f>
+        <v>280</v>
+      </c>
+      <c r="P23" s="33">
+        <f>SUM($O$17:O23)</f>
+        <v>1150</v>
+      </c>
+      <c r="Q23" s="34">
+        <f t="shared" si="0"/>
+        <v>871</v>
+      </c>
+      <c r="R23" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="S23" s="37">
+        <f t="shared" si="1"/>
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="24" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J24" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="40">
+        <v>4750</v>
+      </c>
+      <c r="L24" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="40">
+        <v>5250</v>
+      </c>
+      <c r="N24" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" s="6">
+        <f>G12-G11</f>
+        <v>170</v>
+      </c>
+      <c r="P24" s="33">
+        <f>SUM($O$17:O24)</f>
+        <v>1320</v>
+      </c>
+      <c r="Q24" s="34">
+        <f t="shared" si="0"/>
+        <v>1151</v>
+      </c>
+      <c r="R24" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="S24" s="37">
+        <f t="shared" si="1"/>
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="25" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J25" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="40">
+        <v>5250</v>
+      </c>
+      <c r="L25" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="40">
+        <v>5750</v>
+      </c>
+      <c r="N25" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="O25" s="6">
+        <f>G13-G12</f>
+        <v>90</v>
+      </c>
+      <c r="P25" s="33">
+        <f>SUM($O$17:O25)</f>
+        <v>1410</v>
+      </c>
+      <c r="Q25" s="34">
+        <f t="shared" si="0"/>
+        <v>1321</v>
+      </c>
+      <c r="R25" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="S25" s="37">
+        <f t="shared" si="1"/>
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="26" spans="10:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J26" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="18" t="str">
+        <f>SUM(O17:O25)&amp;" CBs Natura"</f>
+        <v>1410 CBs Natura</v>
+      </c>
+      <c r="P26" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="30"/>
+      <c r="S26" s="31"/>
+    </row>
+    <row r="29" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="O29" s="19">
+        <f>3250+((0.5*1410-590)*500)/130</f>
+        <v>3692.3076923076924</v>
+      </c>
+    </row>
+    <row r="36" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O36" s="20"/>
+    </row>
+    <row r="38" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O38" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q26:S26"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/EST/tabelas_Sprint.xlsx
+++ b/EST/tabelas_Sprint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads_Rodrigo\Git\Challenge_Natura\EST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D122C151-A408-45F1-A0FB-732820EDCDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9146F9-CFED-48F3-BD47-3EC6D7588B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="18000" windowHeight="9270" activeTab="1" xr2:uid="{1F2F3B23-380F-4030-B64F-CCAB0E730B53}"/>
+    <workbookView xWindow="4800" yWindow="3510" windowWidth="18000" windowHeight="9270" activeTab="1" xr2:uid="{1F2F3B23-380F-4030-B64F-CCAB0E730B53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="1" r:id="rId1"/>
@@ -198,10 +198,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.000000000_-;\-&quot;R$&quot;\ * #,##0.000000000_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -385,7 +386,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -433,6 +434,39 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -466,39 +500,8 @@
     <xf numFmtId="44" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1088,13 +1091,13 @@
       </c>
     </row>
     <row r="4" spans="2:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="8" t="s">
         <v>4</v>
       </c>
@@ -1280,25 +1283,25 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
       <c r="O16" s="15" t="s">
         <v>7</v>
       </c>
@@ -1571,14 +1574,14 @@
       </c>
     </row>
     <row r="26" spans="10:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="J26" s="25" t="s">
+      <c r="J26" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
       <c r="P26" s="15" t="str">
         <f>SUM(P17:P25)&amp;" CBs Natura"</f>
         <v>1410 CBs Natura</v>
@@ -1636,10 +1639,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BFD112-6066-4B49-A858-511AFC5FEC7D}">
-  <dimension ref="B3:S38"/>
+  <dimension ref="B3:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,6 +1663,7 @@
     <col min="17" max="17" width="8" customWidth="1"/>
     <col min="18" max="18" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" customWidth="1"/>
+    <col min="21" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
@@ -1673,13 +1677,13 @@
       </c>
     </row>
     <row r="4" spans="2:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="8" t="s">
         <v>4</v>
       </c>
@@ -1865,369 +1869,369 @@
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
       <c r="O16" s="18" t="s">
         <v>8</v>
       </c>
       <c r="P16" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Q16" s="26" t="s">
+      <c r="Q16" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="27"/>
-      <c r="S16" s="28"/>
-    </row>
-    <row r="17" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J17" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" s="39">
+      <c r="R16" s="38"/>
+      <c r="S16" s="39"/>
+    </row>
+    <row r="17" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="J17" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="28">
         <v>1250</v>
       </c>
-      <c r="L17" s="36" t="s">
+      <c r="L17" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="39">
+      <c r="M17" s="28">
         <v>1750</v>
       </c>
-      <c r="N17" s="35" t="s">
+      <c r="N17" s="24" t="s">
         <v>1</v>
       </c>
       <c r="O17" s="6">
         <f>G5</f>
         <v>180</v>
       </c>
-      <c r="P17" s="32">
+      <c r="P17" s="21">
         <f>SUM($O$17:O17)</f>
         <v>180</v>
       </c>
-      <c r="Q17" s="34">
+      <c r="Q17" s="23">
         <f>S16+1</f>
         <v>1</v>
       </c>
-      <c r="R17" s="36" t="s">
+      <c r="R17" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="S17" s="37">
+      <c r="S17" s="26">
         <f>P17</f>
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J18" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" s="40">
+    <row r="18" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="J18" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="29">
         <v>1750</v>
       </c>
-      <c r="L18" s="41" t="s">
+      <c r="L18" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="40">
+      <c r="M18" s="29">
         <v>2250</v>
       </c>
-      <c r="N18" s="42" t="s">
+      <c r="N18" s="31" t="s">
         <v>1</v>
       </c>
       <c r="O18" s="6">
-        <f>G6-G5</f>
+        <f t="shared" ref="O18:O25" si="0">G6-G5</f>
         <v>140</v>
       </c>
-      <c r="P18" s="33">
+      <c r="P18" s="22">
         <f>SUM($O$17:O18)</f>
         <v>320</v>
       </c>
-      <c r="Q18" s="34">
-        <f t="shared" ref="Q18:Q25" si="0">S17+1</f>
+      <c r="Q18" s="23">
+        <f t="shared" ref="Q18:Q25" si="1">S17+1</f>
         <v>181</v>
       </c>
-      <c r="R18" s="36" t="s">
+      <c r="R18" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="S18" s="37">
-        <f t="shared" ref="S18:S25" si="1">P18</f>
+      <c r="S18" s="26">
+        <f t="shared" ref="S18:S25" si="2">P18</f>
         <v>320</v>
       </c>
     </row>
-    <row r="19" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J19" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="K19" s="40">
+    <row r="19" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="J19" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="29">
         <v>2250</v>
       </c>
-      <c r="L19" s="41" t="s">
+      <c r="L19" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="M19" s="40">
+      <c r="M19" s="29">
         <v>2750</v>
       </c>
-      <c r="N19" s="42" t="s">
+      <c r="N19" s="31" t="s">
         <v>1</v>
       </c>
       <c r="O19" s="6">
-        <f>G7-G6</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="P19" s="33">
+      <c r="P19" s="22">
         <f>SUM($O$17:O19)</f>
         <v>460</v>
       </c>
-      <c r="Q19" s="34">
+      <c r="Q19" s="23">
+        <f t="shared" si="1"/>
+        <v>321</v>
+      </c>
+      <c r="R19" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="S19" s="26">
+        <f t="shared" si="2"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="20" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="J20" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="29">
+        <v>2750</v>
+      </c>
+      <c r="L20" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="29">
+        <v>3250</v>
+      </c>
+      <c r="N20" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" s="6">
         <f t="shared" si="0"/>
-        <v>321</v>
-      </c>
-      <c r="R19" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="S19" s="37">
-        <f t="shared" si="1"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="20" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J20" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="40">
-        <v>2750</v>
-      </c>
-      <c r="L20" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" s="40">
-        <v>3250</v>
-      </c>
-      <c r="N20" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="O20" s="6">
-        <f>G8-G7</f>
         <v>130</v>
       </c>
-      <c r="P20" s="33">
+      <c r="P20" s="22">
         <f>SUM($O$17:O20)</f>
         <v>590</v>
       </c>
-      <c r="Q20" s="34">
+      <c r="Q20" s="23">
+        <f t="shared" si="1"/>
+        <v>461</v>
+      </c>
+      <c r="R20" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="S20" s="26">
+        <f t="shared" si="2"/>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="21" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="J21" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="29">
+        <v>3250</v>
+      </c>
+      <c r="L21" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="29">
+        <v>3750</v>
+      </c>
+      <c r="N21" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" s="6">
         <f t="shared" si="0"/>
-        <v>461</v>
-      </c>
-      <c r="R20" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="S20" s="37">
-        <f t="shared" si="1"/>
-        <v>590</v>
-      </c>
-    </row>
-    <row r="21" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J21" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="K21" s="40">
-        <v>3250</v>
-      </c>
-      <c r="L21" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="M21" s="40">
-        <v>3750</v>
-      </c>
-      <c r="N21" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="O21" s="6">
-        <f>G9-G8</f>
         <v>130</v>
       </c>
-      <c r="P21" s="33">
+      <c r="P21" s="22">
         <f>SUM($O$17:O21)</f>
         <v>720</v>
       </c>
-      <c r="Q21" s="34">
+      <c r="Q21" s="23">
+        <f t="shared" si="1"/>
+        <v>591</v>
+      </c>
+      <c r="R21" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="S21" s="26">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="22" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="J22" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="29">
+        <v>3750</v>
+      </c>
+      <c r="L22" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" s="29">
+        <v>4250</v>
+      </c>
+      <c r="N22" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" s="6">
         <f t="shared" si="0"/>
-        <v>591</v>
-      </c>
-      <c r="R21" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="S21" s="37">
-        <f t="shared" si="1"/>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="22" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J22" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="K22" s="40">
-        <v>3750</v>
-      </c>
-      <c r="L22" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="M22" s="40">
-        <v>4250</v>
-      </c>
-      <c r="N22" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="O22" s="6">
-        <f>G10-G9</f>
         <v>150</v>
       </c>
-      <c r="P22" s="33">
+      <c r="P22" s="22">
         <f>SUM($O$17:O22)</f>
         <v>870</v>
       </c>
-      <c r="Q22" s="34">
+      <c r="Q22" s="23">
+        <f t="shared" si="1"/>
+        <v>721</v>
+      </c>
+      <c r="R22" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="S22" s="26">
+        <f t="shared" si="2"/>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="23" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="J23" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="29">
+        <v>4250</v>
+      </c>
+      <c r="L23" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" s="29">
+        <v>4750</v>
+      </c>
+      <c r="N23" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" s="6">
         <f t="shared" si="0"/>
-        <v>721</v>
-      </c>
-      <c r="R22" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="S22" s="37">
-        <f t="shared" si="1"/>
-        <v>870</v>
-      </c>
-    </row>
-    <row r="23" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J23" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="K23" s="40">
-        <v>4250</v>
-      </c>
-      <c r="L23" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="M23" s="40">
-        <v>4750</v>
-      </c>
-      <c r="N23" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="O23" s="6">
-        <f>G11-G10</f>
         <v>280</v>
       </c>
-      <c r="P23" s="33">
+      <c r="P23" s="22">
         <f>SUM($O$17:O23)</f>
         <v>1150</v>
       </c>
-      <c r="Q23" s="34">
+      <c r="Q23" s="23">
+        <f t="shared" si="1"/>
+        <v>871</v>
+      </c>
+      <c r="R23" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="S23" s="26">
+        <f t="shared" si="2"/>
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="24" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="J24" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="29">
+        <v>4750</v>
+      </c>
+      <c r="L24" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="29">
+        <v>5250</v>
+      </c>
+      <c r="N24" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" s="6">
         <f t="shared" si="0"/>
-        <v>871</v>
-      </c>
-      <c r="R23" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="S23" s="37">
-        <f t="shared" si="1"/>
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="24" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J24" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="K24" s="40">
-        <v>4750</v>
-      </c>
-      <c r="L24" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" s="40">
-        <v>5250</v>
-      </c>
-      <c r="N24" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="O24" s="6">
-        <f>G12-G11</f>
         <v>170</v>
       </c>
-      <c r="P24" s="33">
+      <c r="P24" s="22">
         <f>SUM($O$17:O24)</f>
         <v>1320</v>
       </c>
-      <c r="Q24" s="34">
+      <c r="Q24" s="23">
+        <f t="shared" si="1"/>
+        <v>1151</v>
+      </c>
+      <c r="R24" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="S24" s="26">
+        <f t="shared" si="2"/>
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="25" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="J25" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="29">
+        <v>5250</v>
+      </c>
+      <c r="L25" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="29">
+        <v>5750</v>
+      </c>
+      <c r="N25" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="O25" s="6">
         <f t="shared" si="0"/>
-        <v>1151</v>
-      </c>
-      <c r="R24" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="S24" s="37">
-        <f t="shared" si="1"/>
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="25" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J25" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="K25" s="40">
-        <v>5250</v>
-      </c>
-      <c r="L25" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="M25" s="40">
-        <v>5750</v>
-      </c>
-      <c r="N25" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="O25" s="6">
-        <f>G13-G12</f>
         <v>90</v>
       </c>
-      <c r="P25" s="33">
+      <c r="P25" s="22">
         <f>SUM($O$17:O25)</f>
         <v>1410</v>
       </c>
-      <c r="Q25" s="34">
-        <f t="shared" si="0"/>
+      <c r="Q25" s="23">
+        <f t="shared" si="1"/>
         <v>1321</v>
       </c>
-      <c r="R25" s="36" t="s">
+      <c r="R25" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="S25" s="37">
-        <f t="shared" si="1"/>
+      <c r="S25" s="26">
+        <f t="shared" si="2"/>
         <v>1410</v>
       </c>
     </row>
-    <row r="26" spans="10:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="J26" s="25" t="s">
+    <row r="26" spans="10:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J26" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
       <c r="O26" s="18" t="str">
         <f>SUM(O17:O25)&amp;" CBs Natura"</f>
         <v>1410 CBs Natura</v>
@@ -2235,16 +2239,26 @@
       <c r="P26" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="Q26" s="29" t="s">
+      <c r="Q26" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="R26" s="30"/>
-      <c r="S26" s="31"/>
-    </row>
-    <row r="29" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="R26" s="41"/>
+      <c r="S26" s="42"/>
+    </row>
+    <row r="29" spans="10:21" x14ac:dyDescent="0.25">
       <c r="O29" s="19">
         <f>3250+((0.5*1410-590)*500)/130</f>
         <v>3692.3076923076924</v>
+      </c>
+      <c r="U29" s="43">
+        <f>0.75*1410</f>
+        <v>1057.5</v>
+      </c>
+    </row>
+    <row r="31" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="O31" s="44">
+        <f>4250+((0.75*1410-870)*500/280)</f>
+        <v>4584.8214285714284</v>
       </c>
     </row>
     <row r="36" spans="15:15" x14ac:dyDescent="0.25">
